--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1173.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1173.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.077309359392269</v>
+        <v>1.166318655014038</v>
       </c>
       <c r="B1">
-        <v>2.125503818103111</v>
+        <v>2.435633420944214</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.109967604250638</v>
+        <v>2.368980169296265</v>
       </c>
       <c r="E1">
-        <v>1.138670754426329</v>
+        <v>1.234718441963196</v>
       </c>
     </row>
   </sheetData>
